--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,215 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,38</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,06%</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 9,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 8,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 14,2</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 14,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 13,69</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 19,22</t>
-        </is>
-      </c>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,36%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 3,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 3,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 4,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,91; 4,99</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; 5,21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 5,53</t>
-        </is>
-      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,98%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>13,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 5,33</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,86; -0,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 15,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,73; 9,27</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; -0,68</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,14; 21,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr"/>
+      <c r="D12" s="4" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 3,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 1,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 6,71</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 5,03</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 2,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 8,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr"/>
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +745,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
